--- a/Eda.Yandex check-list .xlsx
+++ b/Eda.Yandex check-list .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26625"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2361FF88-B477-40B0-9272-81F8D2719E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A654945B-F041-41D3-BA9A-470F8673FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Проверка фильтров поля каталога</t>
   </si>
@@ -118,7 +118,34 @@
         <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> выбирать в фильтре "Навынос"</t>
+      <t xml:space="preserve"> выбирать в фильтре </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"Навынос"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Среда:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Windows 10, Chrome v.114, 1920x1080, развернуто, масштаб 100% </t>
     </r>
   </si>
   <si>
@@ -128,94 +155,130 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Топ</t>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Бургеры</t>
   </si>
   <si>
     <t>Откроется список ресторанов выбранной категории</t>
   </si>
   <si>
-    <t>Китайская</t>
-  </si>
-  <si>
     <t>Суши</t>
   </si>
   <si>
-    <t>Бургеры</t>
-  </si>
-  <si>
     <t>Пицца</t>
   </si>
   <si>
+    <t>Вок</t>
+  </si>
+  <si>
+    <t>Паста</t>
+  </si>
+  <si>
+    <t>Завтраки</t>
+  </si>
+  <si>
+    <t>Обед</t>
+  </si>
+  <si>
+    <t>Грузия</t>
+  </si>
+  <si>
+    <t>Еще</t>
+  </si>
+  <si>
+    <t>Откроется список с дополнительным выбором</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>При различном разрешении и масштабе страницы меняется кол-во фильтров перед пунктом</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Еще</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, не вошедшие перемещаются в начало выпадающего списка</t>
+    </r>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>Русская</t>
+  </si>
+  <si>
+    <t>Узбекская</t>
+  </si>
+  <si>
+    <t>Азия</t>
+  </si>
+  <si>
+    <t>Япония</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>Кофе</t>
+  </si>
+  <si>
     <t>Десерты</t>
   </si>
   <si>
-    <t>Постное</t>
-  </si>
-  <si>
-    <t>Еще</t>
-  </si>
-  <si>
-    <t>Откроется список с дополнительным выбором(после "Для детей" идут названия ближайших гастрономических точек)</t>
-  </si>
-  <si>
-    <t>Грузия</t>
+    <t>Выпечка</t>
   </si>
   <si>
     <t>Шашлык</t>
   </si>
   <si>
+    <t>Шаурма</t>
+  </si>
+  <si>
+    <t>Стейки</t>
+  </si>
+  <si>
+    <t>Сэндвичи</t>
+  </si>
+  <si>
+    <t>Морепродукты</t>
+  </si>
+  <si>
     <t>Здоровая</t>
   </si>
   <si>
-    <t>Вок</t>
-  </si>
-  <si>
-    <t>Завтраки</t>
-  </si>
-  <si>
-    <t>Обед</t>
-  </si>
-  <si>
-    <t>Депо</t>
-  </si>
-  <si>
-    <t>Кофе</t>
-  </si>
-  <si>
-    <t>Итальянская</t>
-  </si>
-  <si>
-    <t>Русская</t>
-  </si>
-  <si>
-    <t>Сэндвичи</t>
-  </si>
-  <si>
-    <t>Американская</t>
-  </si>
-  <si>
-    <t>Шаурма</t>
+    <t>Вегги</t>
+  </si>
+  <si>
+    <t>Европа</t>
   </si>
   <si>
     <t>Фастфуд</t>
   </si>
   <si>
-    <t>Морепродукты</t>
-  </si>
-  <si>
-    <t>Стейки</t>
-  </si>
-  <si>
-    <t>Пироги</t>
-  </si>
-  <si>
-    <t>Выпечка</t>
-  </si>
-  <si>
-    <t>Вегги</t>
-  </si>
-  <si>
-    <t>Для детей</t>
+    <t>Восток</t>
+  </si>
+  <si>
+    <t>Кавказ</t>
+  </si>
+  <si>
+    <t>Детское</t>
   </si>
   <si>
     <t>Балчук</t>
@@ -224,6 +287,33 @@
     <t>Откроется список ресторанов выбранной точки</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>До обновления после основных фильтров шли названия ближайших гастрономических точек, функциональность как у других фильтров, на данный момент недоступно (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>22.06.2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>Центральный рынок</t>
   </si>
   <si>
@@ -242,56 +332,114 @@
     <t>Красная Роза</t>
   </si>
   <si>
-    <t>Доставка:</t>
-  </si>
-  <si>
-    <t>Откроется список с возможным временем</t>
-  </si>
-  <si>
-    <t>Сейчас</t>
-  </si>
-  <si>
-    <t>Список ресторанов обновится с учетом фильтров</t>
-  </si>
-  <si>
-    <t>Сортировка</t>
-  </si>
-  <si>
-    <t>Откроется меню с выбором фильтров, для применения нажать кнопку "Показать"</t>
-  </si>
-  <si>
-    <t>Доверюсь вам</t>
-  </si>
-  <si>
-    <t>С высоким рейтингом</t>
-  </si>
-  <si>
-    <t>Быстрые</t>
-  </si>
-  <si>
-    <t>Недорогие</t>
-  </si>
-  <si>
-    <t>Дорогие</t>
-  </si>
-  <si>
-    <t>Установить фильтр "Навынос"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">При установке фильтра "Навынос" проверки и результат остаются такими же,
-</t>
-    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Доставка: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Сегодня</t>
+    </r>
+  </si>
+  <si>
+    <t>Откроется список с возможным временем</t>
+  </si>
+  <si>
+    <t>При выборе сегодня доступное время определяется по часовому поясу выбранного адреса</t>
+  </si>
+  <si>
+    <t>Сейчас</t>
+  </si>
+  <si>
+    <t>Список ресторанов обновится с учетом фильтров</t>
+  </si>
+  <si>
+    <t>0:00-23:30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="inherit"/>
+      </rPr>
+      <t>Доставка:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> Завтра</t>
+    </r>
+  </si>
+  <si>
+    <t>Сортировка</t>
+  </si>
+  <si>
+    <t>Откроется меню с выбором фильтров, применяются кнопкой "Показать"</t>
+  </si>
+  <si>
+    <t>Доверюсь вам</t>
+  </si>
+  <si>
+    <t>С высоким рейтингом</t>
+  </si>
+  <si>
+    <t>Быстрые</t>
+  </si>
+  <si>
+    <t>Недорогие</t>
+  </si>
+  <si>
+    <t>Дорогие</t>
+  </si>
+  <si>
+    <t>Установить фильтр "Навынос"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">При установке фильтра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>"Навынос"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> проверки и результат остаются такими же,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
       <t>НО:</t>
@@ -304,7 +452,34 @@
     <t>Страница обновляется, фильтры сбрасываются</t>
   </si>
   <si>
-    <t>Время в списке зависит от актуального</t>
+    <t>Доставка:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Остается только фильтр </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Сейчас </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>и ближайшее время</t>
+    </r>
   </si>
   <si>
     <t>Отсутствует фильтр "Быстрые"</t>
@@ -314,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -337,12 +512,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -353,6 +522,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -365,8 +540,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <color rgb="FF21201F"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -376,13 +573,6 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -401,13 +591,41 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="inherit"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -426,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -524,6 +742,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF980000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF980000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF980000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF980000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF980000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF980000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF980000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF980000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF980000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF980000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF980000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF980000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -560,36 +841,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,13 +888,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,38 +903,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -863,10 +1158,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -876,547 +1171,445 @@
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:3" ht="24">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="12.75">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="27"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="31"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="32"/>
+    </row>
+    <row r="12" spans="1:3" ht="48">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="27"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:3" ht="43.5">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="27"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="27"/>
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="27"/>
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="27"/>
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="27"/>
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="27"/>
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="27"/>
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="27"/>
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="27"/>
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="27"/>
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="27"/>
+      <c r="A24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="27"/>
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="27"/>
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="27"/>
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="31"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="27"/>
+      <c r="A28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="27"/>
+      <c r="A29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="27"/>
+      <c r="A30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="28"/>
+      <c r="A31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="31"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="27"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="27"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="B33" s="33"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="27"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="B34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="27"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="C34" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="28"/>
-    </row>
-    <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="9" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="B42" s="27"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B43" s="27"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B44" s="27"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="10">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B46" s="27"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="10">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B47" s="27"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B48" s="27"/>
+      <c r="B38" s="34"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="34"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="35"/>
+    </row>
+    <row r="41" spans="1:3" ht="24">
+      <c r="A41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="31"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="32"/>
+    </row>
+    <row r="46" spans="1:3" ht="28.5">
+      <c r="A46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="31"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="10">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B49" s="27"/>
+      <c r="A49" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B50" s="27"/>
+      <c r="A50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="31"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="10">
-        <v>0.6875</v>
-      </c>
-      <c r="B51" s="27"/>
+      <c r="A51" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="32"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B52" s="27"/>
+      <c r="A52" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="36"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="B53" s="27"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="B54" s="27"/>
+      <c r="A54" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="39"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="10">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B55" s="27"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B56" s="27"/>
+      <c r="A55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30.75">
+      <c r="A56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="10">
-        <v>0.8125</v>
-      </c>
-      <c r="B57" s="27"/>
+      <c r="A57" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B58" s="27"/>
+      <c r="B58" s="20"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="10">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B59" s="27"/>
+      <c r="B59" s="20"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="B60" s="27"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="10">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="B61" s="27"/>
+      <c r="B61" s="20"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="10">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="B62" s="27"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="10">
-        <v>0.9375</v>
-      </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="10">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="B64" s="27"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="B65" s="28"/>
-    </row>
-    <row r="66" spans="1:2" ht="28.5">
-      <c r="A66" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="27"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="27"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="27"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="28"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="29"/>
-    </row>
-    <row r="73" spans="1:2" ht="12.75">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="23"/>
-    </row>
-    <row r="75" spans="1:2" ht="12.75">
-      <c r="A75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="B78" s="17"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" s="17"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="B80" s="17"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="17"/>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="17"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="17"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="17"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="17"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="17"/>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="17"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="17"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="17"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="17"/>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="17"/>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="17"/>
+      <c r="B64" s="20"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="20"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="A74:B74"/>
+  <mergeCells count="10">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B12:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B40:B65"/>
-    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="B34:B40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Eda.Yandex check-list .xlsx
+++ b/Eda.Yandex check-list .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26625"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A654945B-F041-41D3-BA9A-470F8673FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA62971D-6216-4B67-A2AD-63516FF8CEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
       <t>До обновления после основных фильтров шли названия ближайших гастрономических точек, функциональность как у других фильтров, на данный момент недоступно (</t>
@@ -299,7 +299,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
       <t>22.06.2023</t>
@@ -307,7 +307,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
       <t>)</t>
@@ -644,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -774,19 +774,6 @@
       <right style="thin">
         <color rgb="FF980000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF980000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF980000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF980000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -837,11 +824,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF980000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF980000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF980000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -903,6 +925,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,30 +940,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1172,18 +1195,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="24">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1225,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1210,43 +1233,43 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:3" ht="48">
       <c r="A12" s="4" t="s">
@@ -1263,7 +1286,7 @@
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1271,170 +1294,171 @@
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="33"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="33"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="33"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="33"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="33"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="33"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="33"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="31"/>
+      <c r="B24" s="33"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="31"/>
+      <c r="B25" s="33"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="33"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="31"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="B32" s="33"/>
+    </row>
+    <row r="33" spans="1:3" ht="12.75">
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="33"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35" s="36"/>
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="34"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37" s="36"/>
+      <c r="C37" s="31"/>
+    </row>
+    <row r="38" spans="1:3" ht="12.75">
       <c r="A38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="28"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="28"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:3" ht="24">
       <c r="A41" s="11" t="s">
@@ -1451,7 +1475,7 @@
       <c r="A42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1459,19 +1483,19 @@
       <c r="A43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:3" ht="28.5">
       <c r="A46" s="14" t="s">
@@ -1485,7 +1509,7 @@
       <c r="A47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1493,41 +1517,41 @@
       <c r="A48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="31"/>
+      <c r="B48" s="33"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="31"/>
+      <c r="B49" s="33"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="31"/>
+      <c r="B50" s="33"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="34"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="37"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="39"/>
+      <c r="B54" s="40"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
@@ -1600,16 +1624,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="B13:B33"/>
     <mergeCell ref="B34:B40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
